--- a/ssp_modeling/scenario_mapping/ssp_uganda_transformation_cw_bau.xlsx
+++ b/ssp_modeling/scenario_mapping/ssp_uganda_transformation_cw_bau.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\fabian_fuentes\repos\ssp_uganda_private\ssp_modeling\scenario_mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791A6DD3-E62D-4787-8AD2-0579EF3E34AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505B160B-026E-49C6-B6D8-73F3F48640D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -1553,8 +1553,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -1729,7 +1730,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1872,6 +1873,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2197,34 +2201,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:U65"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I28" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="K23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.1796875" style="19" customWidth="1"/>
-    <col min="3" max="3" width="43.453125" style="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.453125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="62.54296875" style="19" customWidth="1"/>
-    <col min="6" max="6" width="33.1796875" style="19" customWidth="1"/>
-    <col min="7" max="7" width="19.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="47.453125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="48.54296875" style="16" customWidth="1"/>
-    <col min="10" max="10" width="40.453125" style="16" customWidth="1"/>
+    <col min="1" max="2" width="13.140625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="43.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="62.5703125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="48.5703125" style="16" customWidth="1"/>
+    <col min="10" max="10" width="40.42578125" style="16" customWidth="1"/>
     <col min="11" max="12" width="35" style="16" customWidth="1"/>
-    <col min="13" max="13" width="31.453125" style="41" customWidth="1"/>
-    <col min="14" max="14" width="13.81640625" style="4" customWidth="1"/>
-    <col min="15" max="17" width="20.453125" style="29" customWidth="1"/>
-    <col min="18" max="16384" width="8.81640625" style="15"/>
+    <col min="13" max="13" width="31.42578125" style="41" customWidth="1"/>
+    <col min="14" max="14" width="13.85546875" style="4" customWidth="1"/>
+    <col min="15" max="17" width="20.42578125" style="29" customWidth="1"/>
+    <col min="18" max="16384" width="8.85546875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="5" customFormat="1" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" s="5" customFormat="1" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2277,7 +2281,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="12" customFormat="1" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" s="12" customFormat="1" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -2324,7 +2328,7 @@
       </c>
       <c r="Q2" s="11"/>
     </row>
-    <row r="3" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -2363,7 +2367,7 @@
       </c>
       <c r="Q3" s="11"/>
     </row>
-    <row r="4" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -2402,7 +2406,7 @@
       </c>
       <c r="Q4" s="11"/>
     </row>
-    <row r="5" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -2446,7 +2450,7 @@
       </c>
       <c r="Q5" s="11"/>
     </row>
-    <row r="6" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -2499,7 +2503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>80</v>
       </c>
@@ -2538,7 +2542,7 @@
       </c>
       <c r="Q7" s="42"/>
     </row>
-    <row r="8" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>80</v>
       </c>
@@ -2589,7 +2593,7 @@
       </c>
       <c r="Q8" s="11"/>
     </row>
-    <row r="9" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>80</v>
       </c>
@@ -2640,7 +2644,7 @@
       </c>
       <c r="Q9" s="11"/>
     </row>
-    <row r="10" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>80</v>
       </c>
@@ -2691,7 +2695,7 @@
       </c>
       <c r="Q10" s="11"/>
     </row>
-    <row r="11" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>80</v>
       </c>
@@ -2730,7 +2734,7 @@
       </c>
       <c r="Q11" s="11"/>
     </row>
-    <row r="12" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>80</v>
       </c>
@@ -2769,7 +2773,7 @@
       </c>
       <c r="Q12" s="11"/>
     </row>
-    <row r="13" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>80</v>
       </c>
@@ -2820,7 +2824,7 @@
       </c>
       <c r="Q13" s="11"/>
     </row>
-    <row r="14" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>80</v>
       </c>
@@ -2871,7 +2875,7 @@
       </c>
       <c r="Q14" s="11"/>
     </row>
-    <row r="15" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>80</v>
       </c>
@@ -2910,7 +2914,7 @@
       </c>
       <c r="Q15" s="11"/>
     </row>
-    <row r="16" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>127</v>
       </c>
@@ -2961,7 +2965,7 @@
       </c>
       <c r="Q16" s="11"/>
     </row>
-    <row r="17" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>127</v>
       </c>
@@ -3012,7 +3016,7 @@
       </c>
       <c r="Q17" s="11"/>
     </row>
-    <row r="18" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>127</v>
       </c>
@@ -3063,7 +3067,7 @@
       </c>
       <c r="Q18" s="11"/>
     </row>
-    <row r="19" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>127</v>
       </c>
@@ -3102,7 +3106,7 @@
       </c>
       <c r="Q19" s="11"/>
     </row>
-    <row r="20" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>127</v>
       </c>
@@ -3141,7 +3145,7 @@
       </c>
       <c r="Q20" s="11"/>
     </row>
-    <row r="21" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>127</v>
       </c>
@@ -3180,7 +3184,7 @@
       </c>
       <c r="Q21" s="11"/>
     </row>
-    <row r="22" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>5</v>
       </c>
@@ -3231,7 +3235,7 @@
       </c>
       <c r="Q22" s="11"/>
     </row>
-    <row r="23" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>5</v>
       </c>
@@ -3276,7 +3280,7 @@
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
     </row>
-    <row r="24" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>5</v>
       </c>
@@ -3327,7 +3331,7 @@
       </c>
       <c r="Q24" s="11"/>
     </row>
-    <row r="25" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>5</v>
       </c>
@@ -3372,7 +3376,7 @@
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
     </row>
-    <row r="26" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>5</v>
       </c>
@@ -3410,14 +3414,22 @@
         <v>1</v>
       </c>
       <c r="O26" s="11">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="P26" s="11">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="Q26" s="11"/>
-    </row>
-    <row r="27" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="R26" s="15">
+        <f>+M26*O26</f>
+        <v>0.94500000000000006</v>
+      </c>
+      <c r="S26" s="15">
+        <f>+M26*P26</f>
+        <v>0.94500000000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>5</v>
       </c>
@@ -3462,7 +3474,7 @@
       </c>
       <c r="Q27" s="11"/>
     </row>
-    <row r="28" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>5</v>
       </c>
@@ -3507,7 +3519,7 @@
       </c>
       <c r="Q28" s="11"/>
     </row>
-    <row r="29" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>5</v>
       </c>
@@ -3552,7 +3564,7 @@
       </c>
       <c r="Q29" s="11"/>
     </row>
-    <row r="30" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>5</v>
       </c>
@@ -3591,7 +3603,7 @@
       </c>
       <c r="Q30" s="11"/>
     </row>
-    <row r="31" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>5</v>
       </c>
@@ -3630,7 +3642,7 @@
       </c>
       <c r="Q31" s="11"/>
     </row>
-    <row r="32" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>5</v>
       </c>
@@ -3674,16 +3686,27 @@
         <v>248</v>
       </c>
       <c r="O32" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="P32" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="Q32" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="S32" s="15">
+        <f>+M32*O32</f>
+        <v>0.21</v>
+      </c>
+      <c r="T32" s="11">
         <v>2</v>
       </c>
-      <c r="P32" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q32" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="U32" s="50">
+        <f>+T32-Q32</f>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>151</v>
       </c>
@@ -3720,7 +3743,7 @@
       <c r="P33" s="11"/>
       <c r="Q33" s="11"/>
     </row>
-    <row r="34" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>151</v>
       </c>
@@ -3759,7 +3782,7 @@
       </c>
       <c r="Q34" s="11"/>
     </row>
-    <row r="35" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>80</v>
       </c>
@@ -3798,7 +3821,7 @@
       </c>
       <c r="Q35" s="11"/>
     </row>
-    <row r="36" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>80</v>
       </c>
@@ -3837,7 +3860,7 @@
       </c>
       <c r="Q36" s="11"/>
     </row>
-    <row r="37" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>80</v>
       </c>
@@ -3876,7 +3899,7 @@
       </c>
       <c r="Q37" s="11"/>
     </row>
-    <row r="38" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>5</v>
       </c>
@@ -3917,7 +3940,7 @@
       </c>
       <c r="Q38" s="11"/>
     </row>
-    <row r="39" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>5</v>
       </c>
@@ -3958,7 +3981,7 @@
       </c>
       <c r="Q39" s="11"/>
     </row>
-    <row r="40" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>80</v>
       </c>
@@ -4009,7 +4032,7 @@
       </c>
       <c r="Q40" s="11"/>
     </row>
-    <row r="41" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>80</v>
       </c>
@@ -4060,7 +4083,7 @@
       </c>
       <c r="Q41" s="11"/>
     </row>
-    <row r="42" spans="1:17" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>80</v>
       </c>
@@ -4111,7 +4134,7 @@
       </c>
       <c r="Q42" s="11"/>
     </row>
-    <row r="43" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>80</v>
       </c>
@@ -4150,7 +4173,7 @@
       </c>
       <c r="Q43" s="11"/>
     </row>
-    <row r="44" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>80</v>
       </c>
@@ -4189,7 +4212,7 @@
       </c>
       <c r="Q44" s="11"/>
     </row>
-    <row r="45" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>80</v>
       </c>
@@ -4240,7 +4263,7 @@
       </c>
       <c r="Q45" s="11"/>
     </row>
-    <row r="46" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>80</v>
       </c>
@@ -4291,7 +4314,7 @@
       </c>
       <c r="Q46" s="11"/>
     </row>
-    <row r="47" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>80</v>
       </c>
@@ -4330,7 +4353,7 @@
       </c>
       <c r="Q47" s="11"/>
     </row>
-    <row r="48" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>80</v>
       </c>
@@ -4381,7 +4404,7 @@
       </c>
       <c r="Q48" s="11"/>
     </row>
-    <row r="49" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>80</v>
       </c>
@@ -4432,7 +4455,7 @@
       </c>
       <c r="Q49" s="11"/>
     </row>
-    <row r="50" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>80</v>
       </c>
@@ -4483,7 +4506,7 @@
       </c>
       <c r="Q50" s="11"/>
     </row>
-    <row r="51" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>127</v>
       </c>
@@ -4522,7 +4545,7 @@
       </c>
       <c r="Q51" s="11"/>
     </row>
-    <row r="52" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>127</v>
       </c>
@@ -4573,7 +4596,7 @@
       </c>
       <c r="Q52" s="11"/>
     </row>
-    <row r="53" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>57</v>
       </c>
@@ -4624,7 +4647,7 @@
       </c>
       <c r="Q53" s="11"/>
     </row>
-    <row r="54" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>57</v>
       </c>
@@ -4675,7 +4698,7 @@
       </c>
       <c r="Q54" s="11"/>
     </row>
-    <row r="55" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>57</v>
       </c>
@@ -4726,7 +4749,7 @@
       </c>
       <c r="Q55" s="11"/>
     </row>
-    <row r="56" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>57</v>
       </c>
@@ -4777,7 +4800,7 @@
       </c>
       <c r="Q56" s="11"/>
     </row>
-    <row r="57" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>57</v>
       </c>
@@ -4820,7 +4843,7 @@
       </c>
       <c r="Q57" s="11"/>
     </row>
-    <row r="58" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>57</v>
       </c>
@@ -4869,7 +4892,7 @@
       </c>
       <c r="Q58" s="11"/>
     </row>
-    <row r="59" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>57</v>
       </c>
@@ -4914,7 +4937,7 @@
       </c>
       <c r="Q59" s="11"/>
     </row>
-    <row r="60" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>57</v>
       </c>
@@ -4959,7 +4982,7 @@
       </c>
       <c r="Q60" s="11"/>
     </row>
-    <row r="61" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>57</v>
       </c>
@@ -5010,7 +5033,7 @@
       </c>
       <c r="Q61" s="11"/>
     </row>
-    <row r="62" spans="1:17" ht="85" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" ht="84.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>57</v>
       </c>
@@ -5060,6 +5083,10 @@
         <v>1</v>
       </c>
       <c r="Q62" s="11"/>
+    </row>
+    <row r="65" spans="18:21" x14ac:dyDescent="0.25">
+      <c r="R65" s="51"/>
+      <c r="U65" s="52"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:Q62" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -5068,7 +5095,7 @@
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="I1:L1">
-    <cfRule type="colorScale" priority="70">
+    <cfRule type="colorScale" priority="81">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5080,6 +5107,50 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24">
+    <cfRule type="colorScale" priority="153">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="152">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1048576">
     <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="min"/>
@@ -5090,6 +5161,8 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N2">
     <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
@@ -5101,18 +5174,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J24">
-    <cfRule type="colorScale" priority="141">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="142">
+  <conditionalFormatting sqref="N22:Q22">
+    <cfRule type="colorScale" priority="162">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5123,44 +5186,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2">
-    <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N22:Q22">
-    <cfRule type="colorScale" priority="151">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O3:O4 O11:O12 O15 O19:O21 O43:O44 O47 O51 O57 O26:O39">
-    <cfRule type="colorScale" priority="43">
+  <conditionalFormatting sqref="O3:O4 O11:O12 O15 O19:O21 O43:O44 O47 O51 O57 O26:O39 O32:Q32">
+    <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5172,7 +5199,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7">
-    <cfRule type="colorScale" priority="35">
+    <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5183,7 +5210,41 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O8:O1048576 O1:O6">
+  <conditionalFormatting sqref="O8:O1048576 O1:O6 O32:Q32">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O22">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O26:O32 O32:Q32">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="min"/>
@@ -5195,8 +5256,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O22">
-    <cfRule type="colorScale" priority="26">
+  <conditionalFormatting sqref="O38">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="41">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5207,8 +5278,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O26:O32">
-    <cfRule type="colorScale" priority="37">
+  <conditionalFormatting sqref="O39">
+    <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5229,18 +5300,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O38">
-    <cfRule type="colorScale" priority="30">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="31">
+  <conditionalFormatting sqref="O43:O44 O57 O51 O47 O19:O21 O11:O12 O15 O3:O4 O7 O26:O39 O32:Q32">
+    <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5251,64 +5312,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O39">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O43:O44 O57 O51 O47 O19:O21 O11:O12 O15 O3:O4 O7 O26:O39">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O23:P25 P30:P31 N23:N62 N8:P21 O32:P62 O26:O32 N2:P6">
-    <cfRule type="colorScale" priority="146">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O32:P32">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="O23:P25 P30:P31 N23:N62 N8:P21 O32:P62 O26:O32 N2:P6 O32:Q32">
+    <cfRule type="colorScale" priority="157">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5320,7 +5325,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O22:Q22">
-    <cfRule type="colorScale" priority="152">
+    <cfRule type="colorScale" priority="163">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O32:Q32">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5332,7 +5359,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1048576 O2:P6">
-    <cfRule type="colorScale" priority="47">
+    <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5344,7 +5371,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8:P10">
-    <cfRule type="colorScale" priority="34">
+    <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5355,8 +5382,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P26:P31 P7 O8:P25 O1:P6 Q1:Q1048576 O32:P1048576">
-    <cfRule type="colorScale" priority="153">
+  <conditionalFormatting sqref="P26:P31 P7 O8:P25 O1:P6 Q1:Q1048576 O32:P1048576 O32:Q32">
+    <cfRule type="colorScale" priority="164">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5368,7 +5395,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P7:Q7 N7">
-    <cfRule type="colorScale" priority="159">
+    <cfRule type="colorScale" priority="170">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5380,7 +5407,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P26:Q26">
-    <cfRule type="colorScale" priority="161">
+    <cfRule type="colorScale" priority="172">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5392,7 +5419,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P27:Q27">
-    <cfRule type="colorScale" priority="162">
+    <cfRule type="colorScale" priority="173">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5404,7 +5431,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P28:Q28">
-    <cfRule type="colorScale" priority="163">
+    <cfRule type="colorScale" priority="174">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5416,7 +5443,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P29:Q29">
-    <cfRule type="colorScale" priority="164">
+    <cfRule type="colorScale" priority="175">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5428,7 +5455,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1048576">
-    <cfRule type="colorScale" priority="165">
+    <cfRule type="colorScale" priority="176">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5440,7 +5467,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q8:Q10">
-    <cfRule type="colorScale" priority="166">
+    <cfRule type="colorScale" priority="177">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5452,7 +5479,119 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q23:Q25 Q8:Q21 Q30:Q62 Q2:Q6">
-    <cfRule type="colorScale" priority="167">
+    <cfRule type="colorScale" priority="178">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T32">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5472,21 +5611,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB6D802-2A41-42EC-BC6C-43AD8F9BB1E2}">
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="63.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="19.1796875" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="63.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>144</v>
       </c>
@@ -5512,7 +5651,7 @@
         <v>strategy_BAU</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>145</v>
       </c>
@@ -5538,7 +5677,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>145</v>
       </c>
@@ -5564,7 +5703,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>145</v>
       </c>
@@ -5590,7 +5729,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>145</v>
       </c>
@@ -5616,7 +5755,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>145</v>
       </c>
@@ -5642,7 +5781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
         <v>154</v>
       </c>
@@ -5668,7 +5807,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
         <v>155</v>
       </c>
@@ -5694,7 +5833,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
         <v>155</v>
       </c>
@@ -5720,7 +5859,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
         <v>155</v>
       </c>
@@ -5746,7 +5885,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
         <v>156</v>
       </c>
@@ -5772,7 +5911,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
         <v>156</v>
       </c>
@@ -5798,7 +5937,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
         <v>157</v>
       </c>
@@ -5824,7 +5963,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
         <v>157</v>
       </c>
@@ -5850,7 +5989,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
         <v>157</v>
       </c>
@@ -5876,7 +6015,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
         <v>127</v>
       </c>
@@ -5902,7 +6041,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
         <v>127</v>
       </c>
@@ -5928,7 +6067,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
         <v>127</v>
       </c>
@@ -5954,7 +6093,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
         <v>127</v>
       </c>
@@ -5980,7 +6119,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
         <v>127</v>
       </c>
@@ -6006,7 +6145,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
         <v>127</v>
       </c>
@@ -6032,7 +6171,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
         <v>146</v>
       </c>
@@ -6058,7 +6197,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
         <v>146</v>
       </c>
@@ -6084,7 +6223,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
         <v>146</v>
       </c>
@@ -6110,7 +6249,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
         <v>146</v>
       </c>
@@ -6136,7 +6275,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
         <v>147</v>
       </c>
@@ -6151,18 +6290,18 @@
       </c>
       <c r="E26" s="35">
         <f>+IF(VLOOKUP(B26,main!$C$2:$P$62,13,FALSE)=0,"",VLOOKUP(B26,main!$C$2:$P$62,13,FALSE))</f>
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="F26" s="35">
         <f>+IF(VLOOKUP(B26,main!C26:P86,14,FALSE)=0,"",VLOOKUP(B26,main!C26:P86,14,FALSE))</f>
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="G26" s="35" t="str">
         <f>+IF(VLOOKUP(B26,main!C26:Q86,15,FALSE)=0,"",VLOOKUP(B26,main!C26:Q86,15,FALSE))</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
         <v>147</v>
       </c>
@@ -6188,7 +6327,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
         <v>147</v>
       </c>
@@ -6214,7 +6353,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
         <v>147</v>
       </c>
@@ -6240,7 +6379,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
         <v>148</v>
       </c>
@@ -6266,7 +6405,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
         <v>148</v>
       </c>
@@ -6292,7 +6431,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
         <v>148</v>
       </c>
@@ -6307,18 +6446,18 @@
       </c>
       <c r="E32" s="35">
         <f>+IF(VLOOKUP(B32,main!$C$2:$P$62,13,FALSE)=0,"",VLOOKUP(B32,main!$C$2:$P$62,13,FALSE))</f>
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="F32" s="35">
         <f>+IF(VLOOKUP(B32,main!C32:P92,14,FALSE)=0,"",VLOOKUP(B32,main!C32:P92,14,FALSE))</f>
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="G32" s="35">
         <f>+IF(VLOOKUP(B32,main!C32:Q92,15,FALSE)=0,"",VLOOKUP(B32,main!C32:Q92,15,FALSE))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
         <v>150</v>
       </c>
@@ -6344,7 +6483,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="33" t="s">
         <v>150</v>
       </c>
@@ -6370,7 +6509,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
         <v>158</v>
       </c>
@@ -6396,7 +6535,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="33" t="s">
         <v>158</v>
       </c>
@@ -6422,7 +6561,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="33" t="s">
         <v>158</v>
       </c>
@@ -6448,7 +6587,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="33" t="s">
         <v>149</v>
       </c>
@@ -6474,7 +6613,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="33" t="s">
         <v>149</v>
       </c>
@@ -6500,7 +6639,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="33" t="s">
         <v>159</v>
       </c>
@@ -6526,7 +6665,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="33" t="s">
         <v>160</v>
       </c>
@@ -6552,7 +6691,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="33" t="s">
         <v>160</v>
       </c>
@@ -6578,7 +6717,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="33" t="s">
         <v>160</v>
       </c>
@@ -6604,7 +6743,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="33" t="s">
         <v>160</v>
       </c>
@@ -6630,7 +6769,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="33" t="s">
         <v>160</v>
       </c>
@@ -6656,7 +6795,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="33" t="s">
         <v>160</v>
       </c>
@@ -6682,7 +6821,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="33" t="s">
         <v>160</v>
       </c>
@@ -6708,7 +6847,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="33" t="s">
         <v>160</v>
       </c>
@@ -6734,7 +6873,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="33" t="s">
         <v>160</v>
       </c>
@@ -6760,7 +6899,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="33" t="s">
         <v>160</v>
       </c>
@@ -6786,7 +6925,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="33" t="s">
         <v>161</v>
       </c>
@@ -6812,7 +6951,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="33" t="s">
         <v>161</v>
       </c>
@@ -6838,7 +6977,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="33" t="s">
         <v>152</v>
       </c>
@@ -6864,7 +7003,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="33" t="s">
         <v>152</v>
       </c>
@@ -6890,7 +7029,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="33" t="s">
         <v>152</v>
       </c>
@@ -6916,7 +7055,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="33" t="s">
         <v>153</v>
       </c>
@@ -6942,7 +7081,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="33" t="s">
         <v>153</v>
       </c>
@@ -6968,7 +7107,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="33" t="s">
         <v>153</v>
       </c>
@@ -6994,7 +7133,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="33" t="s">
         <v>153</v>
       </c>
@@ -7020,7 +7159,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="33" t="s">
         <v>153</v>
       </c>
@@ -7046,7 +7185,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="33" t="s">
         <v>153</v>
       </c>
@@ -7072,7 +7211,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="33" t="s">
         <v>153</v>
       </c>
